--- a/biology/Zoologie/Centruroides_testaceus/Centruroides_testaceus.xlsx
+++ b/biology/Zoologie/Centruroides_testaceus/Centruroides_testaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides testaceus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Sous-le-Vent dans les Petites Antilles[1]. Elle se rencontre à Curaçao, à Bonaire et au Venezuela dans les Dépendances fédérales sur Los Roques, Tortuga et Los Monjes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Sous-le-Vent dans les Petites Antilles. Elle se rencontre à Curaçao, à Bonaire et au Venezuela dans les Dépendances fédérales sur Los Roques, Tortuga et Los Monjes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lectotype mesure 66,5 mm[2].
-Le mâle décrit par Armas, Teruel et Kovařík en 2011 mesure 68,20 mm et la femelle 60,90 mm[3]. Centruroides testaceus mesure de 60 à 80 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lectotype mesure 66,5 mm.
+Le mâle décrit par Armas, Teruel et Kovařík en 2011 mesure 68,20 mm et la femelle 60,90 mm. Centruroides testaceus mesure de 60 à 80 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio testaceus par De Geer en 1778. Elle est placée dans le genre Centruroides par Kraepelin en 1911[4].
-Centruroides hasethi[5] a été placée en synonymie par Sissom en 1991[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio testaceus par De Geer en 1778. Elle est placée dans le genre Centruroides par Kraepelin en 1911.
+Centruroides hasethi a été placée en synonymie par Sissom en 1991.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Geer, 1778 : Mémoires pour servir à l'histoire des Insectes. Stockholm, vol. 7, p. 337-349.</t>
         </is>
